--- a/biology/Biologie cellulaire et moléculaire/Inositol_trisphosphate/Inositol_trisphosphate.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Inositol_trisphosphate/Inositol_trisphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’inositol trisphosphate, souvent appelé trisphosphoinositol et abrégé InsP3 ou IP3, est, avec les diacylglycérols (DAG), un messager secondaire de la transduction de signal et de la signalisation lipidique des cellules vivantes. Alors que le DAG, de nature aliphatique, demeure inclus dans la membrane cellulaire, l'IP3 est soluble et peut diffuser dans les cellules.
